--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna5-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna5-Epha2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H2">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I2">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J2">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.004147</v>
+        <v>15.50220733333333</v>
       </c>
       <c r="N2">
-        <v>30.012441</v>
+        <v>46.506622</v>
       </c>
       <c r="O2">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="P2">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="Q2">
-        <v>0.7135257764810001</v>
+        <v>4.199465288160889</v>
       </c>
       <c r="R2">
-        <v>6.421731988329</v>
+        <v>37.795187593448</v>
       </c>
       <c r="S2">
-        <v>0.02394783515790292</v>
+        <v>0.09689174874600599</v>
       </c>
       <c r="T2">
-        <v>0.02394783515790292</v>
+        <v>0.09689174874600599</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H3">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I3">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J3">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.413406</v>
       </c>
       <c r="O3">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="P3">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="Q3">
-        <v>0.08115145204599999</v>
+        <v>0.3082244935226667</v>
       </c>
       <c r="R3">
-        <v>0.730363068414</v>
+        <v>2.774020441704</v>
       </c>
       <c r="S3">
-        <v>0.002723659972042819</v>
+        <v>0.007111479232357693</v>
       </c>
       <c r="T3">
-        <v>0.002723659972042819</v>
+        <v>0.007111479232357693</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H4">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I4">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J4">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.482224</v>
+        <v>8.848210666666667</v>
       </c>
       <c r="N4">
-        <v>25.446672</v>
+        <v>26.544632</v>
       </c>
       <c r="O4">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="P4">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="Q4">
-        <v>0.604977662352</v>
+        <v>2.396933079143111</v>
       </c>
       <c r="R4">
-        <v>5.444798961168</v>
+        <v>21.572397712288</v>
       </c>
       <c r="S4">
-        <v>0.02030466986584742</v>
+        <v>0.05530300210364001</v>
       </c>
       <c r="T4">
-        <v>0.02030466986584742</v>
+        <v>0.05530300210364001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H5">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I5">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J5">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5560033333333334</v>
+        <v>0.371739</v>
       </c>
       <c r="N5">
-        <v>1.66801</v>
+        <v>1.115217</v>
       </c>
       <c r="O5">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575842</v>
       </c>
       <c r="P5">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575841</v>
       </c>
       <c r="Q5">
-        <v>0.03965582574333334</v>
+        <v>0.100702112492</v>
       </c>
       <c r="R5">
-        <v>0.35690243169</v>
+        <v>0.9063190124279998</v>
       </c>
       <c r="S5">
-        <v>0.001330955670074742</v>
+        <v>0.002323439560096938</v>
       </c>
       <c r="T5">
-        <v>0.001330955670074742</v>
+        <v>0.002323439560096938</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.174364</v>
       </c>
       <c r="I6">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J6">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.004147</v>
+        <v>15.50220733333333</v>
       </c>
       <c r="N6">
-        <v>30.012441</v>
+        <v>46.506622</v>
       </c>
       <c r="O6">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="P6">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="Q6">
-        <v>10.58560136250267</v>
+        <v>16.40321629315645</v>
       </c>
       <c r="R6">
-        <v>95.270412262524</v>
+        <v>147.628946638408</v>
       </c>
       <c r="S6">
-        <v>0.3552811192424198</v>
+        <v>0.3784615903799837</v>
       </c>
       <c r="T6">
-        <v>0.3552811192424198</v>
+        <v>0.3784615903799836</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.174364</v>
       </c>
       <c r="I7">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J7">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.413406</v>
       </c>
       <c r="O7">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="P7">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="Q7">
         <v>1.203932569309333</v>
@@ -883,10 +883,10 @@
         <v>10.835393123784</v>
       </c>
       <c r="S7">
-        <v>0.04040719993781217</v>
+        <v>0.02777761548393213</v>
       </c>
       <c r="T7">
-        <v>0.04040719993781217</v>
+        <v>0.02777761548393213</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.174364</v>
       </c>
       <c r="I8">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J8">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.482224</v>
+        <v>8.848210666666667</v>
       </c>
       <c r="N8">
-        <v>25.446672</v>
+        <v>26.544632</v>
       </c>
       <c r="O8">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="P8">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="Q8">
-        <v>8.975222168511999</v>
+        <v>9.362480468227556</v>
       </c>
       <c r="R8">
-        <v>80.77699951660799</v>
+        <v>84.26232421404801</v>
       </c>
       <c r="S8">
-        <v>0.3012324825279872</v>
+        <v>0.2160149073560193</v>
       </c>
       <c r="T8">
-        <v>0.3012324825279872</v>
+        <v>0.2160149073560192</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.174364</v>
       </c>
       <c r="I9">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J9">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5560033333333334</v>
+        <v>0.371739</v>
       </c>
       <c r="N9">
-        <v>1.66801</v>
+        <v>1.115217</v>
       </c>
       <c r="O9">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575842</v>
       </c>
       <c r="P9">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575841</v>
       </c>
       <c r="Q9">
-        <v>0.5883189884044445</v>
+        <v>0.3933449663320001</v>
       </c>
       <c r="R9">
-        <v>5.29487089564</v>
+        <v>3.540104696988</v>
       </c>
       <c r="S9">
-        <v>0.0197455601731145</v>
+        <v>0.009075412947403367</v>
       </c>
       <c r="T9">
-        <v>0.0197455601731145</v>
+        <v>0.009075412947403364</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,10 +1039,10 @@
         <v>1.041014</v>
       </c>
       <c r="I10">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J10">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.004147</v>
+        <v>15.50220733333333</v>
       </c>
       <c r="N10">
-        <v>30.012441</v>
+        <v>46.506622</v>
       </c>
       <c r="O10">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="P10">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="Q10">
-        <v>3.471485695019334</v>
+        <v>5.379338288300889</v>
       </c>
       <c r="R10">
-        <v>31.243371255174</v>
+        <v>48.414044594708</v>
       </c>
       <c r="S10">
-        <v>0.1165123530467925</v>
+        <v>0.1241142521928261</v>
       </c>
       <c r="T10">
-        <v>0.1165123530467925</v>
+        <v>0.1241142521928261</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,10 +1101,10 @@
         <v>1.041014</v>
       </c>
       <c r="I11">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J11">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,10 +1119,10 @@
         <v>3.413406</v>
       </c>
       <c r="O11">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="P11">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="Q11">
         <v>0.3948226037426667</v>
@@ -1131,10 +1131,10 @@
         <v>3.553403433684001</v>
       </c>
       <c r="S11">
-        <v>0.01325130351656634</v>
+        <v>0.009109505590849103</v>
       </c>
       <c r="T11">
-        <v>0.01325130351656634</v>
+        <v>0.009109505590849103</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,10 +1163,10 @@
         <v>1.041014</v>
       </c>
       <c r="I12">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J12">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.482224</v>
+        <v>8.848210666666667</v>
       </c>
       <c r="N12">
-        <v>25.446672</v>
+        <v>26.544632</v>
       </c>
       <c r="O12">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="P12">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="Q12">
-        <v>2.943371311712</v>
+        <v>3.070370392983111</v>
       </c>
       <c r="R12">
-        <v>26.490341805408</v>
+        <v>27.633333536848</v>
       </c>
       <c r="S12">
-        <v>0.09878742058767995</v>
+        <v>0.07084081811862755</v>
       </c>
       <c r="T12">
-        <v>0.09878742058767995</v>
+        <v>0.07084081811862755</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,10 +1225,10 @@
         <v>1.041014</v>
       </c>
       <c r="I13">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J13">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5560033333333334</v>
+        <v>0.371739</v>
       </c>
       <c r="N13">
-        <v>1.66801</v>
+        <v>1.115217</v>
       </c>
       <c r="O13">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575842</v>
       </c>
       <c r="P13">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575841</v>
       </c>
       <c r="Q13">
-        <v>0.1929357513488889</v>
+        <v>0.128995167782</v>
       </c>
       <c r="R13">
-        <v>1.73642176214</v>
+        <v>1.160956510038</v>
       </c>
       <c r="S13">
-        <v>0.006475440301759541</v>
+        <v>0.002976228288258111</v>
       </c>
       <c r="T13">
-        <v>0.006475440301759541</v>
+        <v>0.00297622828825811</v>
       </c>
     </row>
   </sheetData>
